--- a/黑色/玻璃/data_input/玻璃期货价格.xlsx
+++ b/黑色/玻璃/data_input/玻璃期货价格.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3160"/>
+  <dimension ref="A1:D3162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35679,83 +35679,107 @@
     </row>
     <row r="3153">
       <c r="A3153" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B3153" t="inlineStr"/>
-      <c r="C3153" t="n">
-        <v>346.9989</v>
-      </c>
-      <c r="D3153" t="inlineStr"/>
+        <v>45957</v>
+      </c>
+      <c r="B3153" t="n">
+        <v>-271.7875</v>
+      </c>
+      <c r="C3153" t="inlineStr"/>
+      <c r="D3153" t="n">
+        <v>1095</v>
+      </c>
     </row>
     <row r="3154">
       <c r="A3154" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B3154" t="inlineStr"/>
-      <c r="C3154" t="n">
-        <v>363.414</v>
-      </c>
-      <c r="D3154" t="inlineStr"/>
+        <v>45958</v>
+      </c>
+      <c r="B3154" t="n">
+        <v>-253.7875</v>
+      </c>
+      <c r="C3154" t="inlineStr"/>
+      <c r="D3154" t="n">
+        <v>1113</v>
+      </c>
     </row>
     <row r="3155">
       <c r="A3155" s="2" t="n">
-        <v>45975</v>
+        <v>45961</v>
       </c>
       <c r="B3155" t="inlineStr"/>
       <c r="C3155" t="n">
-        <v>381.2922</v>
+        <v>348.1751</v>
       </c>
       <c r="D3155" t="inlineStr"/>
     </row>
     <row r="3156">
       <c r="A3156" s="2" t="n">
-        <v>45982</v>
+        <v>45968</v>
       </c>
       <c r="B3156" t="inlineStr"/>
       <c r="C3156" t="n">
-        <v>398.8674</v>
+        <v>365.7664</v>
       </c>
       <c r="D3156" t="inlineStr"/>
     </row>
     <row r="3157">
       <c r="A3157" s="2" t="n">
-        <v>45989</v>
+        <v>45975</v>
       </c>
       <c r="B3157" t="inlineStr"/>
       <c r="C3157" t="n">
-        <v>415.6714</v>
+        <v>384.8208</v>
       </c>
       <c r="D3157" t="inlineStr"/>
     </row>
     <row r="3158">
       <c r="A3158" s="2" t="n">
-        <v>45996</v>
+        <v>45982</v>
       </c>
       <c r="B3158" t="inlineStr"/>
       <c r="C3158" t="n">
-        <v>430.4433</v>
+        <v>403.5022</v>
       </c>
       <c r="D3158" t="inlineStr"/>
     </row>
     <row r="3159">
       <c r="A3159" s="2" t="n">
-        <v>46003</v>
+        <v>45989</v>
       </c>
       <c r="B3159" t="inlineStr"/>
       <c r="C3159" t="n">
-        <v>443.2002</v>
+        <v>421.4124</v>
       </c>
       <c r="D3159" t="inlineStr"/>
     </row>
     <row r="3160">
       <c r="A3160" s="2" t="n">
-        <v>46010</v>
+        <v>45996</v>
       </c>
       <c r="B3160" t="inlineStr"/>
       <c r="C3160" t="n">
-        <v>455.5365</v>
+        <v>437.2905</v>
       </c>
       <c r="D3160" t="inlineStr"/>
+    </row>
+    <row r="3161">
+      <c r="A3161" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B3161" t="inlineStr"/>
+      <c r="C3161" t="n">
+        <v>451.1536</v>
+      </c>
+      <c r="D3161" t="inlineStr"/>
+    </row>
+    <row r="3162">
+      <c r="A3162" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B3162" t="inlineStr"/>
+      <c r="C3162" t="n">
+        <v>464.5961</v>
+      </c>
+      <c r="D3162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
